--- a/backend/學生成績排名.xlsx
+++ b/backend/學生成績排名.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,28 +404,34 @@
       <c r="G1" t="str">
         <v>交易總次數</v>
       </c>
+      <c r="H1" t="str">
+        <v>首次交易時間</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>4107062**4</v>
+        <v>4106061**8</v>
       </c>
       <c r="C2">
-        <v>2437384</v>
+        <v>2552653</v>
       </c>
       <c r="D2">
-        <v>554284</v>
+        <v>775903</v>
       </c>
       <c r="E2">
-        <v>1883100</v>
+        <v>1776750</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="H2" t="str">
+        <v>10/20 09:38</v>
       </c>
     </row>
     <row r="3">
@@ -433,22 +439,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>4107062**9</v>
+        <v>4107062**4</v>
       </c>
       <c r="C3">
-        <v>2415481</v>
+        <v>2446945</v>
       </c>
       <c r="D3">
-        <v>4781</v>
+        <v>47945</v>
       </c>
       <c r="E3">
-        <v>2410700</v>
+        <v>2399000</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="H3" t="str">
+        <v>10/19 09:42</v>
       </c>
     </row>
     <row r="4">
@@ -456,22 +465,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>4106061**8</v>
+        <v>4107062**9</v>
       </c>
       <c r="C4">
-        <v>2297740</v>
+        <v>2392211</v>
       </c>
       <c r="D4">
-        <v>256940</v>
+        <v>7211</v>
       </c>
       <c r="E4">
-        <v>2040800</v>
+        <v>2385000</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>36</v>
+      </c>
+      <c r="H4" t="str">
+        <v>10/22 09:55</v>
       </c>
     </row>
     <row r="5">
@@ -479,22 +491,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>4108065**0</v>
+        <v>4106065**6</v>
       </c>
       <c r="C5">
-        <v>2240222</v>
+        <v>2236091</v>
       </c>
       <c r="D5">
-        <v>69022</v>
+        <v>1520791</v>
       </c>
       <c r="E5">
-        <v>2171200</v>
+        <v>715300</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>84</v>
+      </c>
+      <c r="H5" t="str">
+        <v>10/20 10:56</v>
       </c>
     </row>
     <row r="6">
@@ -502,22 +517,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>4106044**2</v>
+        <v>4106040**0</v>
       </c>
       <c r="C6">
-        <v>2231258</v>
+        <v>2229881</v>
       </c>
       <c r="D6">
-        <v>355258</v>
+        <v>451881</v>
       </c>
       <c r="E6">
-        <v>1876000</v>
+        <v>1778000</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="H6" t="str">
+        <v>11/24 16:44</v>
       </c>
     </row>
     <row r="7">
@@ -525,22 +543,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>4107034**1</v>
+        <v>4107034**9</v>
       </c>
       <c r="C7">
-        <v>2207778</v>
+        <v>2215225</v>
       </c>
       <c r="D7">
-        <v>11278</v>
+        <v>1680025</v>
       </c>
       <c r="E7">
-        <v>2196500</v>
+        <v>535200</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="H7" t="str">
+        <v>10/26 12:54</v>
       </c>
     </row>
     <row r="8">
@@ -548,22 +569,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>4106054**4</v>
+        <v>4106044**2</v>
       </c>
       <c r="C8">
-        <v>2184862</v>
+        <v>2202539</v>
       </c>
       <c r="D8">
-        <v>1112462</v>
+        <v>38539</v>
       </c>
       <c r="E8">
-        <v>1072400</v>
+        <v>2164000</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>49</v>
+        <v>51</v>
+      </c>
+      <c r="H8" t="str">
+        <v>10/16 10:00</v>
       </c>
     </row>
     <row r="9">
@@ -571,22 +595,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>4106061**2</v>
+        <v>4108065**0</v>
       </c>
       <c r="C9">
-        <v>2178848</v>
+        <v>2195642</v>
       </c>
       <c r="D9">
-        <v>988848</v>
+        <v>151642</v>
       </c>
       <c r="E9">
-        <v>1190000</v>
+        <v>2044000</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="H9" t="str">
+        <v>10/27 15:21</v>
       </c>
     </row>
     <row r="10">
@@ -597,19 +624,22 @@
         <v>4106035**0</v>
       </c>
       <c r="C10">
-        <v>2177363</v>
+        <v>2188949</v>
       </c>
       <c r="D10">
-        <v>1028763</v>
+        <v>1022949</v>
       </c>
       <c r="E10">
-        <v>1148600</v>
+        <v>1166000</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>55</v>
+        <v>84</v>
+      </c>
+      <c r="H10" t="str">
+        <v>10/19 12:07</v>
       </c>
     </row>
     <row r="11">
@@ -617,22 +647,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>4106040**0</v>
+        <v>4108032**1</v>
       </c>
       <c r="C11">
-        <v>2171649</v>
+        <v>2186552</v>
       </c>
       <c r="D11">
-        <v>54149</v>
+        <v>638252</v>
       </c>
       <c r="E11">
-        <v>2117500</v>
+        <v>1548300</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <v>15</v>
+      </c>
+      <c r="H11" t="str">
+        <v>10/20 15:18</v>
       </c>
     </row>
     <row r="12">
@@ -643,19 +676,22 @@
         <v>4106044**4</v>
       </c>
       <c r="C12">
-        <v>2152693</v>
+        <v>2177969</v>
       </c>
       <c r="D12">
-        <v>428853</v>
+        <v>1538619</v>
       </c>
       <c r="E12">
-        <v>1723840</v>
+        <v>639350</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="H12" t="str">
+        <v>10/28 02:03</v>
       </c>
     </row>
     <row r="13">
@@ -663,22 +699,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>4109066**7</v>
+        <v>4108065**9</v>
       </c>
       <c r="C13">
-        <v>2135126</v>
+        <v>2163364</v>
       </c>
       <c r="D13">
-        <v>753826</v>
+        <v>608264</v>
       </c>
       <c r="E13">
-        <v>1381300</v>
+        <v>1555100</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13">
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="H13" t="str">
+        <v>10/28 00:58</v>
       </c>
     </row>
     <row r="14">
@@ -686,22 +725,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>4109034**9</v>
+        <v>4109066**7</v>
       </c>
       <c r="C14">
-        <v>2129382</v>
+        <v>2147726</v>
       </c>
       <c r="D14">
-        <v>259082</v>
+        <v>414876</v>
       </c>
       <c r="E14">
-        <v>1870300</v>
+        <v>1732850</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="H14" t="str">
+        <v>10/16 10:57</v>
       </c>
     </row>
     <row r="15">
@@ -709,22 +751,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>4107034**9</v>
+        <v>4109034**9</v>
       </c>
       <c r="C15">
-        <v>2129160</v>
+        <v>2137153</v>
       </c>
       <c r="D15">
-        <v>828860</v>
+        <v>906503</v>
       </c>
       <c r="E15">
-        <v>1300300</v>
+        <v>1230650</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="H15" t="str">
+        <v>10/20 15:13</v>
       </c>
     </row>
     <row r="16">
@@ -732,22 +777,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>4106065**6</v>
+        <v>4108065**7</v>
       </c>
       <c r="C16">
-        <v>2128900</v>
+        <v>2124941</v>
       </c>
       <c r="D16">
-        <v>29100</v>
+        <v>835111</v>
       </c>
       <c r="E16">
-        <v>2099800</v>
+        <v>1289830</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>62</v>
+        <v>16</v>
+      </c>
+      <c r="H16" t="str">
+        <v>10/29 15:17</v>
       </c>
     </row>
     <row r="17">
@@ -755,22 +803,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>4108065**7</v>
+        <v>4106065**3</v>
       </c>
       <c r="C17">
-        <v>2118525</v>
+        <v>2115959</v>
       </c>
       <c r="D17">
-        <v>1053585</v>
+        <v>1726359</v>
       </c>
       <c r="E17">
-        <v>1064940</v>
+        <v>389600</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>69</v>
+      </c>
+      <c r="H17" t="str">
+        <v>10/27 12:34</v>
       </c>
     </row>
     <row r="18">
@@ -781,19 +832,22 @@
         <v>4107054**5</v>
       </c>
       <c r="C18">
-        <v>2117619</v>
+        <v>2103881</v>
       </c>
       <c r="D18">
-        <v>2014369</v>
+        <v>1962881</v>
       </c>
       <c r="E18">
-        <v>103250</v>
+        <v>141000</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="H18" t="str">
+        <v>10/16 11:26</v>
       </c>
     </row>
     <row r="19">
@@ -801,22 +855,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>4108065**9</v>
+        <v>4106054**4</v>
       </c>
       <c r="C19">
-        <v>2103424</v>
+        <v>2102811</v>
       </c>
       <c r="D19">
-        <v>1407914</v>
+        <v>1482561</v>
       </c>
       <c r="E19">
-        <v>695510</v>
+        <v>620250</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G19">
-        <v>13</v>
+        <v>97</v>
+      </c>
+      <c r="H19" t="str">
+        <v>10/19 11:55</v>
       </c>
     </row>
     <row r="20">
@@ -824,22 +881,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>4108032**1</v>
+        <v>4107034**1</v>
       </c>
       <c r="C20">
-        <v>2093255</v>
+        <v>2097281</v>
       </c>
       <c r="D20">
-        <v>441205</v>
+        <v>851281</v>
       </c>
       <c r="E20">
-        <v>1652050</v>
+        <v>1246000</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>59</v>
+      </c>
+      <c r="H20" t="str">
+        <v>10/19 13:26</v>
       </c>
     </row>
     <row r="21">
@@ -850,19 +910,22 @@
         <v>4107034**8</v>
       </c>
       <c r="C21">
-        <v>2086649</v>
+        <v>2096670</v>
       </c>
       <c r="D21">
-        <v>1529049</v>
+        <v>260150</v>
       </c>
       <c r="E21">
-        <v>557600</v>
+        <v>1836520</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="H21" t="str">
+        <v>10/16 07:44</v>
       </c>
     </row>
     <row r="22">
@@ -870,22 +933,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>4108062**2</v>
+        <v>4107030**1</v>
       </c>
       <c r="C22">
-        <v>2070999</v>
+        <v>2060501</v>
       </c>
       <c r="D22">
-        <v>809099</v>
+        <v>743401</v>
       </c>
       <c r="E22">
-        <v>1261900</v>
+        <v>1317100</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="H22" t="str">
+        <v>11/18 09:45</v>
       </c>
     </row>
     <row r="23">
@@ -893,22 +959,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>4106043**0</v>
+        <v>4106061**9</v>
       </c>
       <c r="C23">
-        <v>2066245</v>
+        <v>2058153</v>
       </c>
       <c r="D23">
-        <v>1202645</v>
+        <v>1151083</v>
       </c>
       <c r="E23">
-        <v>863600</v>
+        <v>907070</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G23">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="H23" t="str">
+        <v>10/21 00:28</v>
       </c>
     </row>
     <row r="24">
@@ -916,22 +985,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <v>4106061**9</v>
+        <v>4106035**0</v>
       </c>
       <c r="C24">
-        <v>2064153</v>
+        <v>2056247</v>
       </c>
       <c r="D24">
-        <v>1030353</v>
+        <v>523247</v>
       </c>
       <c r="E24">
-        <v>1033800</v>
+        <v>1533000</v>
       </c>
       <c r="F24">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>19</v>
+        <v>28</v>
+      </c>
+      <c r="H24" t="str">
+        <v>10/22 12:58</v>
       </c>
     </row>
     <row r="25">
@@ -939,22 +1011,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <v>4106065**3</v>
+        <v>4106061**2</v>
       </c>
       <c r="C25">
-        <v>2049774</v>
+        <v>2046273</v>
       </c>
       <c r="D25">
-        <v>482274</v>
+        <v>1777473</v>
       </c>
       <c r="E25">
-        <v>1567500</v>
+        <v>268800</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>41</v>
+        <v>27</v>
+      </c>
+      <c r="H25" t="str">
+        <v>11/11 08:02</v>
       </c>
     </row>
     <row r="26">
@@ -965,19 +1040,22 @@
         <v>4109042**1</v>
       </c>
       <c r="C26">
-        <v>2037716</v>
+        <v>2046241</v>
       </c>
       <c r="D26">
-        <v>1633716</v>
+        <v>1740441</v>
       </c>
       <c r="E26">
-        <v>404000</v>
+        <v>305800</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H26" t="str">
+        <v>10/17 11:13</v>
       </c>
     </row>
     <row r="27">
@@ -985,22 +1063,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>4107030**1</v>
+        <v>4108062**2</v>
       </c>
       <c r="C27">
-        <v>2034863</v>
+        <v>2044959</v>
       </c>
       <c r="D27">
-        <v>1323563</v>
+        <v>931059</v>
       </c>
       <c r="E27">
-        <v>711300</v>
+        <v>1113900</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="H27" t="str">
+        <v>11/17 16:55</v>
       </c>
     </row>
     <row r="28">
@@ -1008,22 +1089,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <v>4109029**8</v>
+        <v>4106043**0</v>
       </c>
       <c r="C28">
-        <v>2034238</v>
+        <v>2038995</v>
       </c>
       <c r="D28">
-        <v>2016568</v>
+        <v>1202645</v>
       </c>
       <c r="E28">
-        <v>17670</v>
+        <v>836350</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28">
-        <v>63</v>
+        <v>9</v>
+      </c>
+      <c r="H28" t="str">
+        <v>10/23 12:15</v>
       </c>
     </row>
     <row r="29">
@@ -1031,22 +1115,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <v>4106043**3</v>
+        <v>4107054**0</v>
       </c>
       <c r="C29">
-        <v>2028230</v>
+        <v>2035298</v>
       </c>
       <c r="D29">
-        <v>1833130</v>
+        <v>1137298</v>
       </c>
       <c r="E29">
-        <v>195100</v>
+        <v>898000</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29">
-        <v>11</v>
+        <v>31</v>
+      </c>
+      <c r="H29" t="str">
+        <v>10/21 09:15</v>
       </c>
     </row>
     <row r="30">
@@ -1054,22 +1141,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <v>4107054**0</v>
+        <v>4108043**7</v>
       </c>
       <c r="C30">
-        <v>2023803</v>
+        <v>2031542</v>
       </c>
       <c r="D30">
-        <v>1326303</v>
+        <v>148342</v>
       </c>
       <c r="E30">
-        <v>697500</v>
+        <v>1883200</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G30">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="H30" t="str">
+        <v>10/30 09:17</v>
       </c>
     </row>
     <row r="31">
@@ -1077,22 +1167,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="str">
-        <v>4106035**0</v>
+        <v>4106065**1</v>
       </c>
       <c r="C31">
-        <v>2023746</v>
+        <v>2028870</v>
       </c>
       <c r="D31">
-        <v>738746</v>
+        <v>1906570</v>
       </c>
       <c r="E31">
-        <v>1285000</v>
+        <v>122300</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G31">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="H31" t="str">
+        <v>10/29 13:31</v>
       </c>
     </row>
     <row r="32">
@@ -1100,22 +1193,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="str">
-        <v>4106065**1</v>
+        <v>4106043**3</v>
       </c>
       <c r="C32">
-        <v>2020235</v>
+        <v>2024182</v>
       </c>
       <c r="D32">
-        <v>1661035</v>
+        <v>1812082</v>
       </c>
       <c r="E32">
-        <v>359200</v>
+        <v>212100</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>33</v>
+      </c>
+      <c r="H32" t="str">
+        <v>11/9 18:11</v>
       </c>
     </row>
     <row r="33">
@@ -1123,22 +1219,25 @@
         <v>32</v>
       </c>
       <c r="B33" t="str">
-        <v>4109012**0</v>
+        <v>4107039**7</v>
       </c>
       <c r="C33">
-        <v>2016212</v>
+        <v>2021977</v>
       </c>
       <c r="D33">
-        <v>1952062</v>
+        <v>2021977</v>
       </c>
       <c r="E33">
-        <v>64150</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="H33" t="str">
+        <v>11/3 11:47</v>
       </c>
     </row>
     <row r="34">
@@ -1146,22 +1245,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="str">
-        <v>4108043**7</v>
+        <v>4108033**9</v>
       </c>
       <c r="C34">
-        <v>2015013</v>
+        <v>2020493</v>
       </c>
       <c r="D34">
-        <v>268713</v>
+        <v>1485743</v>
       </c>
       <c r="E34">
-        <v>1746300</v>
+        <v>534750</v>
       </c>
       <c r="F34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G34">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="H34" t="str">
+        <v>11/10 11:22</v>
       </c>
     </row>
     <row r="35">
@@ -1169,22 +1271,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="str">
-        <v>4108033**9</v>
+        <v>4106030**2</v>
       </c>
       <c r="C35">
-        <v>2006140</v>
+        <v>2018162</v>
       </c>
       <c r="D35">
-        <v>1920590</v>
+        <v>879092</v>
       </c>
       <c r="E35">
-        <v>85550</v>
+        <v>1139070</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G35">
-        <v>9</v>
+        <v>60</v>
+      </c>
+      <c r="H35" t="str">
+        <v>10/20 10:15</v>
       </c>
     </row>
     <row r="36">
@@ -1195,19 +1300,22 @@
         <v>4106033**7</v>
       </c>
       <c r="C36">
-        <v>2001804</v>
+        <v>2012390</v>
       </c>
       <c r="D36">
-        <v>1108004</v>
+        <v>1026690</v>
       </c>
       <c r="E36">
-        <v>893800</v>
+        <v>985700</v>
       </c>
       <c r="F36">
         <v>5</v>
       </c>
       <c r="G36">
-        <v>34</v>
+        <v>52</v>
+      </c>
+      <c r="H36" t="str">
+        <v>10/26 11:59</v>
       </c>
     </row>
     <row r="37">
@@ -1215,22 +1323,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="str">
-        <v>4109038**0</v>
+        <v>4106043**3</v>
       </c>
       <c r="C37">
-        <v>2000130</v>
+        <v>2007223</v>
       </c>
       <c r="D37">
-        <v>1967100</v>
+        <v>307873</v>
       </c>
       <c r="E37">
-        <v>33030</v>
+        <v>1699350</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G37">
-        <v>11</v>
+        <v>42</v>
+      </c>
+      <c r="H37" t="str">
+        <v>10/26 16:06</v>
       </c>
     </row>
     <row r="38">
@@ -1238,22 +1349,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="str">
-        <v>4106065**7</v>
+        <v>4106054**0</v>
       </c>
       <c r="C38">
-        <v>1999652</v>
+        <v>2004294</v>
       </c>
       <c r="D38">
-        <v>1718152</v>
+        <v>338894</v>
       </c>
       <c r="E38">
-        <v>281500</v>
+        <v>1665400</v>
       </c>
       <c r="F38">
         <v>6</v>
       </c>
       <c r="G38">
-        <v>30</v>
+        <v>57</v>
+      </c>
+      <c r="H38" t="str">
+        <v>10/25 17:56</v>
       </c>
     </row>
     <row r="39">
@@ -1261,22 +1375,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="str">
-        <v>4107039**7</v>
+        <v>4108031**8</v>
       </c>
       <c r="C39">
-        <v>1998424</v>
+        <v>2001629</v>
       </c>
       <c r="D39">
-        <v>1583924</v>
+        <v>675929</v>
       </c>
       <c r="E39">
-        <v>414500</v>
+        <v>1325700</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G39">
         <v>24</v>
+      </c>
+      <c r="H39" t="str">
+        <v>10/17 00:39</v>
       </c>
     </row>
     <row r="40">
@@ -1284,22 +1401,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="str">
-        <v>4108065**4</v>
+        <v>4109038**0</v>
       </c>
       <c r="C40">
-        <v>1998102</v>
+        <v>1999534</v>
       </c>
       <c r="D40">
-        <v>1718902</v>
+        <v>1999534</v>
       </c>
       <c r="E40">
-        <v>279200</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="H40" t="str">
+        <v>11/4 11:19</v>
       </c>
     </row>
     <row r="41">
@@ -1307,22 +1427,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="str">
-        <v>4108031**4</v>
+        <v>4109012**0</v>
       </c>
       <c r="C41">
-        <v>1988171</v>
+        <v>1996365</v>
       </c>
       <c r="D41">
-        <v>79371</v>
+        <v>1770965</v>
       </c>
       <c r="E41">
-        <v>1908800</v>
+        <v>225400</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G41">
-        <v>101</v>
+        <v>35</v>
+      </c>
+      <c r="H41" t="str">
+        <v>10/20 16:13</v>
       </c>
     </row>
     <row r="42">
@@ -1330,22 +1453,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="str">
-        <v>4106030**2</v>
+        <v>4108065**4</v>
       </c>
       <c r="C42">
-        <v>1984517</v>
+        <v>1991502</v>
       </c>
       <c r="D42">
-        <v>623927</v>
+        <v>1718902</v>
       </c>
       <c r="E42">
-        <v>1360590</v>
+        <v>272600</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G42">
-        <v>58</v>
+        <v>9</v>
+      </c>
+      <c r="H42" t="str">
+        <v>10/30 13:13</v>
       </c>
     </row>
     <row r="43">
@@ -1353,22 +1479,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="str">
-        <v>4108031**8</v>
+        <v>4106065**7</v>
       </c>
       <c r="C43">
-        <v>1982133</v>
+        <v>1983288</v>
       </c>
       <c r="D43">
-        <v>1454933</v>
+        <v>1416688</v>
       </c>
       <c r="E43">
-        <v>527200</v>
+        <v>566600</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G43">
-        <v>17</v>
+        <v>61</v>
+      </c>
+      <c r="H43" t="str">
+        <v>10/29 17:41</v>
       </c>
     </row>
     <row r="44">
@@ -1376,22 +1505,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="str">
-        <v>4106043**3</v>
+        <v>4109029**8</v>
       </c>
       <c r="C44">
-        <v>1978206</v>
+        <v>1967911</v>
       </c>
       <c r="D44">
-        <v>670406</v>
+        <v>10411</v>
       </c>
       <c r="E44">
-        <v>1307800</v>
+        <v>1957500</v>
       </c>
       <c r="F44">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>29</v>
+        <v>91</v>
+      </c>
+      <c r="H44" t="str">
+        <v>11/9 10:47</v>
       </c>
     </row>
     <row r="45">
@@ -1399,22 +1531,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="str">
-        <v>4106054**0</v>
+        <v>4108031**4</v>
       </c>
       <c r="C45">
-        <v>1970794</v>
+        <v>1964184</v>
       </c>
       <c r="D45">
-        <v>1315394</v>
+        <v>1026034</v>
       </c>
       <c r="E45">
-        <v>655400</v>
+        <v>938150</v>
       </c>
       <c r="F45">
         <v>6</v>
       </c>
       <c r="G45">
-        <v>42</v>
+        <v>136</v>
+      </c>
+      <c r="H45" t="str">
+        <v>10/18 10:20</v>
       </c>
     </row>
     <row r="46">
@@ -1422,22 +1557,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="str">
-        <v>4108037**6</v>
+        <v>4107062**5</v>
       </c>
       <c r="C46">
-        <v>1966168</v>
+        <v>1956893</v>
       </c>
       <c r="D46">
-        <v>1937818</v>
+        <v>22203</v>
       </c>
       <c r="E46">
-        <v>28350</v>
+        <v>1934690</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G46">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="H46" t="str">
+        <v>11/4 21:04</v>
       </c>
     </row>
     <row r="47">
@@ -1445,22 +1583,25 @@
         <v>46</v>
       </c>
       <c r="B47" t="str">
-        <v>4107062**5</v>
+        <v>4107052**9</v>
       </c>
       <c r="C47">
-        <v>1957418</v>
+        <v>1942582</v>
       </c>
       <c r="D47">
-        <v>1403188</v>
+        <v>1942582</v>
       </c>
       <c r="E47">
-        <v>554230</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>13</v>
+        <v>88</v>
+      </c>
+      <c r="H47" t="str">
+        <v>10/21 09:38</v>
       </c>
     </row>
     <row r="48">
@@ -1468,22 +1609,25 @@
         <v>47</v>
       </c>
       <c r="B48" t="str">
-        <v>4109042**6</v>
+        <v>4108037**6</v>
       </c>
       <c r="C48">
-        <v>1954995</v>
+        <v>1908328</v>
       </c>
       <c r="D48">
-        <v>207045</v>
+        <v>1908328</v>
       </c>
       <c r="E48">
-        <v>1747950</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="H48" t="str">
+        <v>10/29 11:49</v>
       </c>
     </row>
     <row r="49">
@@ -1491,22 +1635,25 @@
         <v>48</v>
       </c>
       <c r="B49" t="str">
-        <v>4107052**9</v>
+        <v>4109042**6</v>
       </c>
       <c r="C49">
-        <v>1940026</v>
+        <v>1844805</v>
       </c>
       <c r="D49">
-        <v>1746676</v>
+        <v>79055</v>
       </c>
       <c r="E49">
-        <v>193350</v>
+        <v>1765750</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49">
-        <v>48</v>
+        <v>108</v>
+      </c>
+      <c r="H49" t="str">
+        <v>10/19 11:47</v>
       </c>
     </row>
     <row r="51">
@@ -1517,19 +1664,19 @@
         <v>最高</v>
       </c>
       <c r="C51">
-        <v>2437384</v>
+        <v>2552653</v>
       </c>
       <c r="D51">
-        <v>2016568</v>
+        <v>2021977</v>
       </c>
       <c r="E51">
-        <v>2410700</v>
+        <v>2399000</v>
       </c>
       <c r="F51">
         <v>14</v>
       </c>
       <c r="G51">
-        <v>101</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52">
@@ -1540,19 +1687,19 @@
         <v>最低</v>
       </c>
       <c r="C52">
-        <v>1940026</v>
+        <v>1844805</v>
       </c>
       <c r="D52">
-        <v>4781</v>
+        <v>7211</v>
       </c>
       <c r="E52">
-        <v>17670</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -1563,19 +1710,19 @@
         <v>平均</v>
       </c>
       <c r="C53" t="str">
-        <v>2082275.52</v>
+        <v>2088068.00</v>
       </c>
       <c r="D53" t="str">
-        <v>1019068.02</v>
+        <v>1013047.58</v>
       </c>
       <c r="E53" t="str">
-        <v>1063207.50</v>
+        <v>1075020.42</v>
       </c>
       <c r="F53" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G53" t="str">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54">
@@ -1586,19 +1733,19 @@
         <v>中位數</v>
       </c>
       <c r="C54" t="str">
-        <v>2043745.00</v>
+        <v>2046257.00</v>
       </c>
       <c r="D54" t="str">
-        <v>1041969.00</v>
+        <v>977004.00</v>
       </c>
       <c r="E54" t="str">
-        <v>1068670.00</v>
+        <v>1126485.00</v>
       </c>
       <c r="F54" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G54" t="str">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55">
@@ -1609,31 +1756,31 @@
         <v>標準差</v>
       </c>
       <c r="C55" t="str">
-        <v>110755.04</v>
+        <v>130951.98</v>
       </c>
       <c r="D55" t="str">
-        <v>645878.69</v>
+        <v>656079.26</v>
       </c>
       <c r="E55" t="str">
-        <v>709721.22</v>
+        <v>701400.00</v>
       </c>
       <c r="F55" t="str">
         <v>3</v>
       </c>
       <c r="G55" t="str">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G55"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H55"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1660,6 +1807,9 @@
       <c r="G1" t="str">
         <v>交易總次數</v>
       </c>
+      <c r="H1" t="str">
+        <v>首次交易時間</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -1669,19 +1819,22 @@
         <v>7109026**3</v>
       </c>
       <c r="C2">
-        <v>2241074</v>
+        <v>2834732</v>
       </c>
       <c r="D2">
-        <v>78574</v>
+        <v>121732</v>
       </c>
       <c r="E2">
-        <v>2162500</v>
+        <v>2713000</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="H2" t="str">
+        <v>10/19 09:52</v>
       </c>
     </row>
     <row r="3">
@@ -1689,22 +1842,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>7109026**2</v>
+        <v>7109026**9</v>
       </c>
       <c r="C3">
-        <v>2194800</v>
+        <v>2263949</v>
       </c>
       <c r="D3">
-        <v>1686550</v>
+        <v>513099</v>
       </c>
       <c r="E3">
-        <v>508250</v>
+        <v>1750850</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="H3" t="str">
+        <v>10/19 10:45</v>
       </c>
     </row>
     <row r="4">
@@ -1712,22 +1868,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>7109026**9</v>
+        <v>7109026**2</v>
       </c>
       <c r="C4">
-        <v>2114233</v>
+        <v>2244113</v>
       </c>
       <c r="D4">
-        <v>859233</v>
+        <v>746413</v>
       </c>
       <c r="E4">
-        <v>1255000</v>
+        <v>1497700</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="H4" t="str">
+        <v>10/28 10:06</v>
       </c>
     </row>
     <row r="5">
@@ -1735,22 +1894,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>7108026**8</v>
+        <v>7108026**6</v>
       </c>
       <c r="C5">
-        <v>2111406</v>
+        <v>2184014</v>
       </c>
       <c r="D5">
-        <v>399936</v>
+        <v>498814</v>
       </c>
       <c r="E5">
-        <v>1711470</v>
+        <v>1685200</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="H5" t="str">
+        <v>10/16 12:55</v>
       </c>
     </row>
     <row r="6">
@@ -1758,22 +1920,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>7108026**0</v>
+        <v>7109026**7</v>
       </c>
       <c r="C6">
-        <v>2111253</v>
+        <v>2170439</v>
       </c>
       <c r="D6">
-        <v>1583453</v>
+        <v>2170439</v>
       </c>
       <c r="E6">
-        <v>527800</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="H6" t="str">
+        <v>10/19 11:53</v>
       </c>
     </row>
     <row r="7">
@@ -1781,22 +1946,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>7109026**5</v>
+        <v>7108026**9</v>
       </c>
       <c r="C7">
-        <v>2080040</v>
+        <v>2127035</v>
       </c>
       <c r="D7">
-        <v>1862340</v>
+        <v>1447135</v>
       </c>
       <c r="E7">
-        <v>217700</v>
+        <v>679900</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="H7" t="str">
+        <v>10/15 12:20</v>
       </c>
     </row>
     <row r="8">
@@ -1804,22 +1972,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>7109026**7</v>
+        <v>7108026**8</v>
       </c>
       <c r="C8">
-        <v>2073003</v>
+        <v>2122614</v>
       </c>
       <c r="D8">
-        <v>1312753</v>
+        <v>142264</v>
       </c>
       <c r="E8">
-        <v>760250</v>
+        <v>1980350</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>40</v>
+      </c>
+      <c r="H8" t="str">
+        <v>10/21 13:41</v>
       </c>
     </row>
     <row r="9">
@@ -1827,22 +1998,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>7108026**9</v>
+        <v>7108026**0</v>
       </c>
       <c r="C9">
-        <v>2066936</v>
+        <v>2112096</v>
       </c>
       <c r="D9">
-        <v>951936</v>
+        <v>2112096</v>
       </c>
       <c r="E9">
-        <v>1115000</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>28</v>
+      </c>
+      <c r="H9" t="str">
+        <v>10/19 12:47</v>
       </c>
     </row>
     <row r="10">
@@ -1850,22 +2024,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>7109026**7</v>
+        <v>7108026**2</v>
       </c>
       <c r="C10">
-        <v>2066034</v>
+        <v>2108713</v>
       </c>
       <c r="D10">
-        <v>88484</v>
+        <v>363713</v>
       </c>
       <c r="E10">
-        <v>1977550</v>
+        <v>1745000</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>81</v>
+      </c>
+      <c r="H10" t="str">
+        <v>10/26 11:16</v>
       </c>
     </row>
     <row r="11">
@@ -1873,22 +2050,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>7108026**7</v>
+        <v>7109026**5</v>
       </c>
       <c r="C11">
-        <v>2053682</v>
+        <v>2099314</v>
       </c>
       <c r="D11">
-        <v>89882</v>
+        <v>1710264</v>
       </c>
       <c r="E11">
-        <v>1963800</v>
+        <v>389050</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="H11" t="str">
+        <v>10/20 12:31</v>
       </c>
     </row>
     <row r="12">
@@ -1896,22 +2076,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>7108026**4</v>
+        <v>7109026**1</v>
       </c>
       <c r="C12">
-        <v>2048641</v>
+        <v>2081191</v>
       </c>
       <c r="D12">
-        <v>1727091</v>
+        <v>1294091</v>
       </c>
       <c r="E12">
-        <v>321550</v>
+        <v>787100</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12">
-        <v>28</v>
+        <v>12</v>
+      </c>
+      <c r="H12" t="str">
+        <v>11/2 12:32</v>
       </c>
     </row>
     <row r="13">
@@ -1919,22 +2102,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>7109026**2</v>
+        <v>7108026**4</v>
       </c>
       <c r="C13">
-        <v>2031056</v>
+        <v>2054641</v>
       </c>
       <c r="D13">
-        <v>1734096</v>
+        <v>1727091</v>
       </c>
       <c r="E13">
-        <v>296960</v>
+        <v>327550</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="H13" t="str">
+        <v>10/15 12:20</v>
       </c>
     </row>
     <row r="14">
@@ -1942,22 +2128,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>7109026**6</v>
+        <v>7108026**7</v>
       </c>
       <c r="C14">
-        <v>2011961</v>
+        <v>2053684</v>
       </c>
       <c r="D14">
-        <v>519611</v>
+        <v>256434</v>
       </c>
       <c r="E14">
-        <v>1492350</v>
+        <v>1797250</v>
       </c>
       <c r="F14">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>36</v>
+      </c>
+      <c r="H14" t="str">
+        <v>10/21 09:32</v>
       </c>
     </row>
     <row r="15">
@@ -1968,19 +2157,22 @@
         <v>7108026**7</v>
       </c>
       <c r="C15">
-        <v>2010726</v>
+        <v>2039226</v>
       </c>
       <c r="D15">
         <v>1747226</v>
       </c>
       <c r="E15">
-        <v>263500</v>
+        <v>292000</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
         <v>3</v>
+      </c>
+      <c r="H15" t="str">
+        <v>10/20 13:46</v>
       </c>
     </row>
     <row r="16">
@@ -1988,22 +2180,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>7109026**1</v>
+        <v>7109026**2</v>
       </c>
       <c r="C16">
-        <v>2001256</v>
+        <v>2033094</v>
       </c>
       <c r="D16">
-        <v>1727156</v>
+        <v>1726844</v>
       </c>
       <c r="E16">
-        <v>274100</v>
+        <v>306250</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="H16" t="str">
+        <v>10/20 09:05</v>
       </c>
     </row>
     <row r="17">
@@ -2014,19 +2209,22 @@
         <v>7109026**1</v>
       </c>
       <c r="C17">
-        <v>1984657</v>
+        <v>2002407</v>
       </c>
       <c r="D17">
         <v>1749757</v>
       </c>
       <c r="E17">
-        <v>234900</v>
+        <v>252650</v>
       </c>
       <c r="F17">
         <v>4</v>
       </c>
       <c r="G17">
         <v>24</v>
+      </c>
+      <c r="H17" t="str">
+        <v>11/2 09:15</v>
       </c>
     </row>
     <row r="18">
@@ -2034,22 +2232,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>7109026**6</v>
+        <v>7109026**7</v>
       </c>
       <c r="C18">
-        <v>1964429</v>
+        <v>1998211</v>
       </c>
       <c r="D18">
-        <v>439529</v>
+        <v>992211</v>
       </c>
       <c r="E18">
-        <v>1524900</v>
+        <v>1006000</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>23</v>
+        <v>54</v>
+      </c>
+      <c r="H18" t="str">
+        <v>10/15 09:44</v>
       </c>
     </row>
     <row r="19">
@@ -2057,22 +2258,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>7109026**4</v>
+        <v>7109026**6</v>
       </c>
       <c r="C19">
-        <v>1950112</v>
+        <v>1992198</v>
       </c>
       <c r="D19">
-        <v>707112</v>
+        <v>70298</v>
       </c>
       <c r="E19">
-        <v>1243000</v>
+        <v>1921900</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G19">
-        <v>21</v>
+        <v>83</v>
+      </c>
+      <c r="H19" t="str">
+        <v>10/20 15:34</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2284,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>7108026**2</v>
+        <v>7109026**6</v>
       </c>
       <c r="C20">
-        <v>1946704</v>
+        <v>1981274</v>
       </c>
       <c r="D20">
-        <v>213554</v>
+        <v>1318274</v>
       </c>
       <c r="E20">
-        <v>1733150</v>
+        <v>663000</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="H20" t="str">
+        <v>10/18 21:45</v>
       </c>
     </row>
     <row r="21">
@@ -2106,19 +2313,22 @@
         <v>7109026**8</v>
       </c>
       <c r="C21">
-        <v>1942104</v>
+        <v>1954556</v>
       </c>
       <c r="D21">
-        <v>1345004</v>
+        <v>1808556</v>
       </c>
       <c r="E21">
-        <v>597100</v>
+        <v>146000</v>
       </c>
       <c r="F21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="H21" t="str">
+        <v>10/15 12:25</v>
       </c>
     </row>
     <row r="22">
@@ -2126,22 +2336,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>7108026**6</v>
+        <v>7109026**4</v>
       </c>
       <c r="C22">
-        <v>1900539</v>
+        <v>1948863</v>
       </c>
       <c r="D22">
-        <v>358539</v>
+        <v>1437863</v>
       </c>
       <c r="E22">
-        <v>1542000</v>
+        <v>511000</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="H22" t="str">
+        <v>10/19 11:19</v>
       </c>
     </row>
     <row r="23">
@@ -2152,19 +2365,22 @@
         <v>7108026**7</v>
       </c>
       <c r="C23">
-        <v>1837799</v>
+        <v>1862498</v>
       </c>
       <c r="D23">
-        <v>1709299</v>
+        <v>1862498</v>
       </c>
       <c r="E23">
-        <v>128500</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="H23" t="str">
+        <v>10/23 09:03</v>
       </c>
     </row>
     <row r="25">
@@ -2175,19 +2391,19 @@
         <v>最高</v>
       </c>
       <c r="C25">
-        <v>2241074</v>
+        <v>2834732</v>
       </c>
       <c r="D25">
-        <v>1862340</v>
+        <v>2170439</v>
       </c>
       <c r="E25">
-        <v>2162500</v>
+        <v>2713000</v>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -2198,16 +2414,16 @@
         <v>最低</v>
       </c>
       <c r="C26">
-        <v>1837799</v>
+        <v>1862498</v>
       </c>
       <c r="D26">
-        <v>78574</v>
+        <v>70298</v>
       </c>
       <c r="E26">
-        <v>128500</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2221,19 +2437,19 @@
         <v>平均</v>
       </c>
       <c r="C27" t="str">
-        <v>2033747.50</v>
+        <v>2103130.09</v>
       </c>
       <c r="D27" t="str">
-        <v>1040505.23</v>
+        <v>1173505.09</v>
       </c>
       <c r="E27" t="str">
-        <v>993242.27</v>
+        <v>929625.00</v>
       </c>
       <c r="F27" t="str">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G27" t="str">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -2244,19 +2460,19 @@
         <v>中位數</v>
       </c>
       <c r="C28" t="str">
-        <v>2039848.50</v>
+        <v>2067916.00</v>
       </c>
       <c r="D28" t="str">
-        <v>1132344.50</v>
+        <v>1378068.50</v>
       </c>
       <c r="E28" t="str">
-        <v>937625.00</v>
+        <v>671450.00</v>
       </c>
       <c r="F28" t="str">
         <v>3</v>
       </c>
       <c r="G28" t="str">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -2267,31 +2483,31 @@
         <v>標準差</v>
       </c>
       <c r="C29" t="str">
-        <v>91023.96</v>
+        <v>185800.57</v>
       </c>
       <c r="D29" t="str">
-        <v>657374.46</v>
+        <v>690362.70</v>
       </c>
       <c r="E29" t="str">
-        <v>670583.59</v>
+        <v>789256.72</v>
       </c>
       <c r="F29" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" t="str">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H29"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2318,6 +2534,9 @@
       <c r="G1" t="str">
         <v>交易總次數</v>
       </c>
+      <c r="H1" t="str">
+        <v>首次交易時間</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -2327,19 +2546,22 @@
         <v>5109026**6</v>
       </c>
       <c r="C2">
-        <v>2344941</v>
+        <v>2511403</v>
       </c>
       <c r="D2">
-        <v>2133341</v>
+        <v>2292703</v>
       </c>
       <c r="E2">
-        <v>211600</v>
+        <v>218700</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H2" t="str">
+        <v>10/21 09:02</v>
       </c>
     </row>
     <row r="3">
@@ -2347,22 +2569,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>5109026**2</v>
+        <v>5109026**5</v>
       </c>
       <c r="C3">
-        <v>2130901</v>
+        <v>2156936</v>
       </c>
       <c r="D3">
-        <v>81951</v>
+        <v>11986</v>
       </c>
       <c r="E3">
-        <v>2048950</v>
+        <v>2144950</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="H3" t="str">
+        <v>10/28 22:39</v>
       </c>
     </row>
     <row r="4">
@@ -2370,22 +2595,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>5109026**5</v>
+        <v>5109026**2</v>
       </c>
       <c r="C4">
-        <v>2073886</v>
+        <v>2075381</v>
       </c>
       <c r="D4">
-        <v>11986</v>
+        <v>547381</v>
       </c>
       <c r="E4">
-        <v>2061900</v>
+        <v>1528000</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="H4" t="str">
+        <v>11/2 11:14</v>
       </c>
     </row>
     <row r="5">
@@ -2393,22 +2621,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>5109026**7</v>
+        <v>5109026**6</v>
       </c>
       <c r="C5">
-        <v>2058447</v>
+        <v>2051245</v>
       </c>
       <c r="D5">
-        <v>1159797</v>
+        <v>377445</v>
       </c>
       <c r="E5">
-        <v>898650</v>
+        <v>1673800</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="H5" t="str">
+        <v>11/4 16:20</v>
       </c>
     </row>
     <row r="6">
@@ -2416,22 +2647,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>5109026**3</v>
+        <v>5109026**7</v>
       </c>
       <c r="C6">
-        <v>2012658</v>
+        <v>2033019</v>
       </c>
       <c r="D6">
-        <v>1435408</v>
+        <v>867069</v>
       </c>
       <c r="E6">
-        <v>577250</v>
+        <v>1165950</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="H6" t="str">
+        <v>11/10 17:52</v>
       </c>
     </row>
     <row r="7">
@@ -2442,19 +2676,22 @@
         <v>5109026**1</v>
       </c>
       <c r="C7">
-        <v>2005004</v>
+        <v>2006655</v>
       </c>
       <c r="D7">
-        <v>1809654</v>
+        <v>1876055</v>
       </c>
       <c r="E7">
-        <v>195350</v>
+        <v>130600</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="H7" t="str">
+        <v>10/27 19:31</v>
       </c>
     </row>
     <row r="8">
@@ -2462,22 +2699,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>5109026**6</v>
+        <v>5109026**3</v>
       </c>
       <c r="C8">
-        <v>1986745</v>
+        <v>1989796</v>
       </c>
       <c r="D8">
-        <v>377445</v>
+        <v>1330696</v>
       </c>
       <c r="E8">
-        <v>1609300</v>
+        <v>659100</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>56</v>
+      </c>
+      <c r="H8" t="str">
+        <v>10/26 22:08</v>
       </c>
     </row>
     <row r="10">
@@ -2488,19 +2728,19 @@
         <v>最高</v>
       </c>
       <c r="C10">
-        <v>2344941</v>
+        <v>2511403</v>
       </c>
       <c r="D10">
-        <v>2133341</v>
+        <v>2292703</v>
       </c>
       <c r="E10">
-        <v>2061900</v>
+        <v>2144950</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -2511,19 +2751,19 @@
         <v>最低</v>
       </c>
       <c r="C11">
-        <v>1986745</v>
+        <v>1989796</v>
       </c>
       <c r="D11">
         <v>11986</v>
       </c>
       <c r="E11">
-        <v>195350</v>
+        <v>130600</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2534,19 +2774,19 @@
         <v>平均</v>
       </c>
       <c r="C12" t="str">
-        <v>2087511.71</v>
+        <v>2117776.43</v>
       </c>
       <c r="D12" t="str">
-        <v>1001368.86</v>
+        <v>1043333.57</v>
       </c>
       <c r="E12" t="str">
-        <v>1086142.86</v>
+        <v>1074442.86</v>
       </c>
       <c r="F12" t="str">
         <v>5</v>
       </c>
       <c r="G12" t="str">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -2557,19 +2797,19 @@
         <v>中位數</v>
       </c>
       <c r="C13" t="str">
-        <v>2058447.00</v>
+        <v>2051245.00</v>
       </c>
       <c r="D13" t="str">
-        <v>1159797.00</v>
+        <v>867069.00</v>
       </c>
       <c r="E13" t="str">
-        <v>898650.00</v>
+        <v>1165950.00</v>
       </c>
       <c r="F13" t="str">
         <v>5</v>
       </c>
       <c r="G13" t="str">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
@@ -2580,24 +2820,24 @@
         <v>標準差</v>
       </c>
       <c r="C14" t="str">
-        <v>114484.82</v>
+        <v>168442.42</v>
       </c>
       <c r="D14" t="str">
-        <v>789363.57</v>
+        <v>767281.81</v>
       </c>
       <c r="E14" t="str">
-        <v>756425.39</v>
+        <v>708615.05</v>
       </c>
       <c r="F14" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" t="str">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/backend/學生成績排名.xlsx
+++ b/backend/學生成績排名.xlsx
@@ -413,22 +413,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>4106061**8</v>
+        <v>4106061038</v>
       </c>
       <c r="C2">
-        <v>2552653</v>
+        <v>2712592</v>
       </c>
       <c r="D2">
-        <v>775903</v>
+        <v>2712592</v>
       </c>
       <c r="E2">
-        <v>1776750</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H2" t="str">
         <v>10/20 09:38</v>
@@ -439,25 +439,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>4107062**4</v>
+        <v>4106065006</v>
       </c>
       <c r="C3">
-        <v>2446945</v>
+        <v>2628689</v>
       </c>
       <c r="D3">
-        <v>47945</v>
+        <v>54189</v>
       </c>
       <c r="E3">
-        <v>2399000</v>
+        <v>2574500</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="H3" t="str">
-        <v>10/19 09:42</v>
+        <v>10/20 10:56</v>
       </c>
     </row>
     <row r="4">
@@ -465,25 +465,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>4107062**9</v>
+        <v>4107062044</v>
       </c>
       <c r="C4">
-        <v>2392211</v>
+        <v>2625044</v>
       </c>
       <c r="D4">
-        <v>7211</v>
+        <v>588044</v>
       </c>
       <c r="E4">
-        <v>2385000</v>
+        <v>2037000</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H4" t="str">
-        <v>10/22 09:55</v>
+        <v>10/19 09:42</v>
       </c>
     </row>
     <row r="5">
@@ -491,25 +491,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>4106065**6</v>
+        <v>4107062019</v>
       </c>
       <c r="C5">
-        <v>2236091</v>
+        <v>2515453</v>
       </c>
       <c r="D5">
-        <v>1520791</v>
+        <v>1426353</v>
       </c>
       <c r="E5">
-        <v>715300</v>
+        <v>1089100</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="H5" t="str">
-        <v>10/20 10:56</v>
+        <v>10/22 09:55</v>
       </c>
     </row>
     <row r="6">
@@ -517,25 +517,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>4106040**0</v>
+        <v>4108065040</v>
       </c>
       <c r="C6">
-        <v>2229881</v>
+        <v>2471642</v>
       </c>
       <c r="D6">
-        <v>451881</v>
+        <v>151642</v>
       </c>
       <c r="E6">
-        <v>1778000</v>
+        <v>2320000</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="H6" t="str">
-        <v>11/24 16:44</v>
+        <v>10/27 15:21</v>
       </c>
     </row>
     <row r="7">
@@ -543,25 +543,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>4107034**9</v>
+        <v>4106040060</v>
       </c>
       <c r="C7">
-        <v>2215225</v>
+        <v>2336481</v>
       </c>
       <c r="D7">
-        <v>1680025</v>
+        <v>451881</v>
       </c>
       <c r="E7">
-        <v>535200</v>
+        <v>1884600</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" t="str">
-        <v>10/26 12:54</v>
+        <v>11/24 16:44</v>
       </c>
     </row>
     <row r="8">
@@ -569,25 +569,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>4106044**2</v>
+        <v>4108032021</v>
       </c>
       <c r="C8">
-        <v>2202539</v>
+        <v>2316702</v>
       </c>
       <c r="D8">
-        <v>38539</v>
+        <v>638252</v>
       </c>
       <c r="E8">
-        <v>2164000</v>
+        <v>1678450</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
       <c r="G8">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H8" t="str">
-        <v>10/16 10:00</v>
+        <v>10/20 15:18</v>
       </c>
     </row>
     <row r="9">
@@ -595,25 +595,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>4108065**0</v>
+        <v>4106035010</v>
       </c>
       <c r="C9">
-        <v>2195642</v>
+        <v>2313369</v>
       </c>
       <c r="D9">
-        <v>151642</v>
+        <v>1153369</v>
       </c>
       <c r="E9">
-        <v>2044000</v>
+        <v>1160000</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="H9" t="str">
-        <v>10/27 15:21</v>
+        <v>10/19 12:07</v>
       </c>
     </row>
     <row r="10">
@@ -621,25 +621,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>4106035**0</v>
+        <v>4109034019</v>
       </c>
       <c r="C10">
-        <v>2188949</v>
+        <v>2313134</v>
       </c>
       <c r="D10">
-        <v>1022949</v>
+        <v>365734</v>
       </c>
       <c r="E10">
-        <v>1166000</v>
+        <v>1947400</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="H10" t="str">
-        <v>10/19 12:07</v>
+        <v>10/20 15:13</v>
       </c>
     </row>
     <row r="11">
@@ -647,25 +647,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>4108032**1</v>
+        <v>4109066027</v>
       </c>
       <c r="C11">
-        <v>2186552</v>
+        <v>2292221</v>
       </c>
       <c r="D11">
-        <v>638252</v>
+        <v>137271</v>
       </c>
       <c r="E11">
-        <v>1548300</v>
+        <v>2154950</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="H11" t="str">
-        <v>10/20 15:18</v>
+        <v>10/16 10:57</v>
       </c>
     </row>
     <row r="12">
@@ -673,25 +673,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>4106044**4</v>
+        <v>4106044042</v>
       </c>
       <c r="C12">
-        <v>2177969</v>
+        <v>2289792</v>
       </c>
       <c r="D12">
-        <v>1538619</v>
+        <v>909292</v>
       </c>
       <c r="E12">
-        <v>639350</v>
+        <v>1380500</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="H12" t="str">
-        <v>10/28 02:03</v>
+        <v>10/16 10:00</v>
       </c>
     </row>
     <row r="13">
@@ -699,25 +699,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>4108065**9</v>
+        <v>4106035030</v>
       </c>
       <c r="C13">
-        <v>2163364</v>
+        <v>2263247</v>
       </c>
       <c r="D13">
-        <v>608264</v>
+        <v>523247</v>
       </c>
       <c r="E13">
-        <v>1555100</v>
+        <v>1740000</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H13" t="str">
-        <v>10/28 00:58</v>
+        <v>10/22 12:58</v>
       </c>
     </row>
     <row r="14">
@@ -725,25 +725,25 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>4109066**7</v>
+        <v>4107034018</v>
       </c>
       <c r="C14">
-        <v>2147726</v>
+        <v>2259570</v>
       </c>
       <c r="D14">
-        <v>414876</v>
+        <v>260150</v>
       </c>
       <c r="E14">
-        <v>1732850</v>
+        <v>1999420</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H14" t="str">
-        <v>10/16 10:57</v>
+        <v>10/16 07:44</v>
       </c>
     </row>
     <row r="15">
@@ -751,25 +751,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>4109034**9</v>
+        <v>4107034059</v>
       </c>
       <c r="C15">
-        <v>2137153</v>
+        <v>2218513</v>
       </c>
       <c r="D15">
-        <v>906503</v>
+        <v>1839013</v>
       </c>
       <c r="E15">
-        <v>1230650</v>
+        <v>379500</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H15" t="str">
-        <v>10/20 15:13</v>
+        <v>10/26 12:54</v>
       </c>
     </row>
     <row r="16">
@@ -777,25 +777,25 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>4108065**7</v>
+        <v>4106044024</v>
       </c>
       <c r="C16">
-        <v>2124941</v>
+        <v>2212519</v>
       </c>
       <c r="D16">
-        <v>835111</v>
+        <v>1538619</v>
       </c>
       <c r="E16">
-        <v>1289830</v>
+        <v>673900</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H16" t="str">
-        <v>10/29 15:17</v>
+        <v>10/28 02:03</v>
       </c>
     </row>
     <row r="17">
@@ -803,25 +803,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>4106065**3</v>
+        <v>4107030301</v>
       </c>
       <c r="C17">
-        <v>2115959</v>
+        <v>2208001</v>
       </c>
       <c r="D17">
-        <v>1726359</v>
+        <v>743401</v>
       </c>
       <c r="E17">
-        <v>389600</v>
+        <v>1464600</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="H17" t="str">
-        <v>10/27 12:34</v>
+        <v>11/18 09:45</v>
       </c>
     </row>
     <row r="18">
@@ -829,25 +829,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>4107054**5</v>
+        <v>4106054110</v>
       </c>
       <c r="C18">
-        <v>2103881</v>
+        <v>2165340</v>
       </c>
       <c r="D18">
-        <v>1962881</v>
+        <v>68840</v>
       </c>
       <c r="E18">
-        <v>141000</v>
+        <v>2096500</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H18" t="str">
-        <v>10/16 11:26</v>
+        <v>10/25 17:56</v>
       </c>
     </row>
     <row r="19">
@@ -855,25 +855,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>4106054**4</v>
+        <v>4108065039</v>
       </c>
       <c r="C19">
-        <v>2102811</v>
+        <v>2132216</v>
       </c>
       <c r="D19">
-        <v>1482561</v>
+        <v>1682016</v>
       </c>
       <c r="E19">
-        <v>620250</v>
+        <v>450200</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="H19" t="str">
-        <v>10/19 11:55</v>
+        <v>10/28 00:58</v>
       </c>
     </row>
     <row r="20">
@@ -881,25 +881,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>4107034**1</v>
+        <v>4106065003</v>
       </c>
       <c r="C20">
-        <v>2097281</v>
+        <v>2126680</v>
       </c>
       <c r="D20">
-        <v>851281</v>
+        <v>2126680</v>
       </c>
       <c r="E20">
-        <v>1246000</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="H20" t="str">
-        <v>10/19 13:26</v>
+        <v>10/27 12:34</v>
       </c>
     </row>
     <row r="21">
@@ -907,25 +907,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>4107034**8</v>
+        <v>4106043010</v>
       </c>
       <c r="C21">
-        <v>2096670</v>
+        <v>2116345</v>
       </c>
       <c r="D21">
-        <v>260150</v>
+        <v>1202645</v>
       </c>
       <c r="E21">
-        <v>1836520</v>
+        <v>913700</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H21" t="str">
-        <v>10/16 07:44</v>
+        <v>10/23 12:15</v>
       </c>
     </row>
     <row r="22">
@@ -933,25 +933,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>4107030**1</v>
+        <v>4106061019</v>
       </c>
       <c r="C22">
-        <v>2060501</v>
+        <v>2106879</v>
       </c>
       <c r="D22">
-        <v>743401</v>
+        <v>2106879</v>
       </c>
       <c r="E22">
-        <v>1317100</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H22" t="str">
-        <v>11/18 09:45</v>
+        <v>10/21 00:28</v>
       </c>
     </row>
     <row r="23">
@@ -959,25 +959,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>4106061**9</v>
+        <v>4107054025</v>
       </c>
       <c r="C23">
-        <v>2058153</v>
+        <v>2106492</v>
       </c>
       <c r="D23">
-        <v>1151083</v>
+        <v>2106492</v>
       </c>
       <c r="E23">
-        <v>907070</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="H23" t="str">
-        <v>10/21 00:28</v>
+        <v>10/16 11:26</v>
       </c>
     </row>
     <row r="24">
@@ -985,25 +985,25 @@
         <v>23</v>
       </c>
       <c r="B24" t="str">
-        <v>4106035**0</v>
+        <v>4108031048</v>
       </c>
       <c r="C24">
-        <v>2056247</v>
+        <v>2095786</v>
       </c>
       <c r="D24">
-        <v>523247</v>
+        <v>2095786</v>
       </c>
       <c r="E24">
-        <v>1533000</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H24" t="str">
-        <v>10/22 12:58</v>
+        <v>10/17 00:39</v>
       </c>
     </row>
     <row r="25">
@@ -1011,25 +1011,25 @@
         <v>24</v>
       </c>
       <c r="B25" t="str">
-        <v>4106061**2</v>
+        <v>4106054114</v>
       </c>
       <c r="C25">
-        <v>2046273</v>
+        <v>2095464</v>
       </c>
       <c r="D25">
-        <v>1777473</v>
+        <v>188464</v>
       </c>
       <c r="E25">
-        <v>268800</v>
+        <v>1907000</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="H25" t="str">
-        <v>11/11 08:02</v>
+        <v>10/19 11:55</v>
       </c>
     </row>
     <row r="26">
@@ -1037,25 +1037,25 @@
         <v>25</v>
       </c>
       <c r="B26" t="str">
-        <v>4109042**1</v>
+        <v>4108043027</v>
       </c>
       <c r="C26">
-        <v>2046241</v>
+        <v>2092380</v>
       </c>
       <c r="D26">
-        <v>1740441</v>
+        <v>766780</v>
       </c>
       <c r="E26">
-        <v>305800</v>
+        <v>1325600</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H26" t="str">
-        <v>10/17 11:13</v>
+        <v>10/30 09:17</v>
       </c>
     </row>
     <row r="27">
@@ -1063,25 +1063,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="str">
-        <v>4108062**2</v>
+        <v>4108033019</v>
       </c>
       <c r="C27">
-        <v>2044959</v>
+        <v>2089043</v>
       </c>
       <c r="D27">
-        <v>931059</v>
+        <v>1485743</v>
       </c>
       <c r="E27">
-        <v>1113900</v>
+        <v>603300</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H27" t="str">
-        <v>11/17 16:55</v>
+        <v>11/10 11:22</v>
       </c>
     </row>
     <row r="28">
@@ -1089,25 +1089,25 @@
         <v>27</v>
       </c>
       <c r="B28" t="str">
-        <v>4106043**0</v>
+        <v>4108062042</v>
       </c>
       <c r="C28">
-        <v>2038995</v>
+        <v>2086490</v>
       </c>
       <c r="D28">
-        <v>1202645</v>
+        <v>1191990</v>
       </c>
       <c r="E28">
-        <v>836350</v>
+        <v>894500</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="H28" t="str">
-        <v>10/23 12:15</v>
+        <v>11/17 16:55</v>
       </c>
     </row>
     <row r="29">
@@ -1115,25 +1115,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="str">
-        <v>4107054**0</v>
+        <v>4106043043</v>
       </c>
       <c r="C29">
-        <v>2035298</v>
+        <v>2080698</v>
       </c>
       <c r="D29">
-        <v>1137298</v>
+        <v>1446448</v>
       </c>
       <c r="E29">
-        <v>898000</v>
+        <v>634250</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G29">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H29" t="str">
-        <v>10/21 09:15</v>
+        <v>10/26 16:06</v>
       </c>
     </row>
     <row r="30">
@@ -1141,25 +1141,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="str">
-        <v>4108043**7</v>
+        <v>4107054010</v>
       </c>
       <c r="C30">
-        <v>2031542</v>
+        <v>2079111</v>
       </c>
       <c r="D30">
-        <v>148342</v>
+        <v>2079111</v>
       </c>
       <c r="E30">
-        <v>1883200</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H30" t="str">
-        <v>10/30 09:17</v>
+        <v>10/21 09:15</v>
       </c>
     </row>
     <row r="31">
@@ -1167,25 +1167,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="str">
-        <v>4106065**1</v>
+        <v>4107034021</v>
       </c>
       <c r="C31">
-        <v>2028870</v>
+        <v>2078718</v>
       </c>
       <c r="D31">
-        <v>1906570</v>
+        <v>2078718</v>
       </c>
       <c r="E31">
-        <v>122300</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="H31" t="str">
-        <v>10/29 13:31</v>
+        <v>10/19 13:26</v>
       </c>
     </row>
     <row r="32">
@@ -1193,25 +1193,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="str">
-        <v>4106043**3</v>
+        <v>4109042011</v>
       </c>
       <c r="C32">
-        <v>2024182</v>
+        <v>2077441</v>
       </c>
       <c r="D32">
-        <v>1812082</v>
+        <v>1740441</v>
       </c>
       <c r="E32">
-        <v>212100</v>
+        <v>337000</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H32" t="str">
-        <v>11/9 18:11</v>
+        <v>10/17 11:13</v>
       </c>
     </row>
     <row r="33">
@@ -1219,22 +1219,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="str">
-        <v>4107039**7</v>
+        <v>4107039047</v>
       </c>
       <c r="C33">
-        <v>2021977</v>
+        <v>2069323</v>
       </c>
       <c r="D33">
-        <v>2021977</v>
+        <v>22073</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2047250</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H33" t="str">
         <v>11/3 11:47</v>
@@ -1245,25 +1245,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="str">
-        <v>4108033**9</v>
+        <v>4107062125</v>
       </c>
       <c r="C34">
-        <v>2020493</v>
+        <v>2049257</v>
       </c>
       <c r="D34">
-        <v>1485743</v>
+        <v>1450967</v>
       </c>
       <c r="E34">
-        <v>534750</v>
+        <v>598290</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H34" t="str">
-        <v>11/10 11:22</v>
+        <v>11/4 21:04</v>
       </c>
     </row>
     <row r="35">
@@ -1271,16 +1271,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="str">
-        <v>4106030**2</v>
+        <v>4106030332</v>
       </c>
       <c r="C35">
-        <v>2018162</v>
+        <v>2046942</v>
       </c>
       <c r="D35">
         <v>879092</v>
       </c>
       <c r="E35">
-        <v>1139070</v>
+        <v>1167850</v>
       </c>
       <c r="F35">
         <v>6</v>
@@ -1297,25 +1297,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="str">
-        <v>4106033**7</v>
+        <v>4106061032</v>
       </c>
       <c r="C36">
-        <v>2012390</v>
+        <v>2046278</v>
       </c>
       <c r="D36">
-        <v>1026690</v>
+        <v>2046278</v>
       </c>
       <c r="E36">
-        <v>985700</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H36" t="str">
-        <v>10/26 11:59</v>
+        <v>11/11 08:02</v>
       </c>
     </row>
     <row r="37">
@@ -1323,25 +1323,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="str">
-        <v>4106043**3</v>
+        <v>4106033117</v>
       </c>
       <c r="C37">
-        <v>2007223</v>
+        <v>2037365</v>
       </c>
       <c r="D37">
-        <v>307873</v>
+        <v>1672815</v>
       </c>
       <c r="E37">
-        <v>1699350</v>
+        <v>364550</v>
       </c>
       <c r="F37">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G37">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="H37" t="str">
-        <v>10/26 16:06</v>
+        <v>10/26 11:59</v>
       </c>
     </row>
     <row r="38">
@@ -1349,25 +1349,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="str">
-        <v>4106054**0</v>
+        <v>4108065017</v>
       </c>
       <c r="C38">
-        <v>2004294</v>
+        <v>2031562</v>
       </c>
       <c r="D38">
-        <v>338894</v>
+        <v>1131882</v>
       </c>
       <c r="E38">
-        <v>1665400</v>
+        <v>899680</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G38">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="H38" t="str">
-        <v>10/25 17:56</v>
+        <v>10/29 15:17</v>
       </c>
     </row>
     <row r="39">
@@ -1375,25 +1375,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="str">
-        <v>4108031**8</v>
+        <v>4106043003</v>
       </c>
       <c r="C39">
-        <v>2001629</v>
+        <v>2026304</v>
       </c>
       <c r="D39">
-        <v>675929</v>
+        <v>1923304</v>
       </c>
       <c r="E39">
-        <v>1325700</v>
+        <v>103000</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H39" t="str">
-        <v>10/17 00:39</v>
+        <v>11/9 18:11</v>
       </c>
     </row>
     <row r="40">
@@ -1401,25 +1401,25 @@
         <v>39</v>
       </c>
       <c r="B40" t="str">
-        <v>4109038**0</v>
+        <v>4109029038</v>
       </c>
       <c r="C40">
-        <v>1999534</v>
+        <v>2018945</v>
       </c>
       <c r="D40">
-        <v>1999534</v>
+        <v>1125695</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>893250</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G40">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="H40" t="str">
-        <v>11/4 11:19</v>
+        <v>11/9 10:47</v>
       </c>
     </row>
     <row r="41">
@@ -1427,25 +1427,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="str">
-        <v>4109012**0</v>
+        <v>4106065017</v>
       </c>
       <c r="C41">
-        <v>1996365</v>
+        <v>2014425</v>
       </c>
       <c r="D41">
-        <v>1770965</v>
+        <v>1913925</v>
       </c>
       <c r="E41">
-        <v>225400</v>
+        <v>100500</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="H41" t="str">
-        <v>10/20 16:13</v>
+        <v>10/29 17:41</v>
       </c>
     </row>
     <row r="42">
@@ -1453,16 +1453,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="str">
-        <v>4108065**4</v>
+        <v>4108065024</v>
       </c>
       <c r="C42">
-        <v>1991502</v>
+        <v>2001802</v>
       </c>
       <c r="D42">
         <v>1718902</v>
       </c>
       <c r="E42">
-        <v>272600</v>
+        <v>282900</v>
       </c>
       <c r="F42">
         <v>3</v>
@@ -1479,25 +1479,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="str">
-        <v>4106065**7</v>
+        <v>4109038010</v>
       </c>
       <c r="C43">
-        <v>1983288</v>
+        <v>1999534</v>
       </c>
       <c r="D43">
-        <v>1416688</v>
+        <v>1999534</v>
       </c>
       <c r="E43">
-        <v>566600</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="H43" t="str">
-        <v>10/29 17:41</v>
+        <v>11/4 11:19</v>
       </c>
     </row>
     <row r="44">
@@ -1505,25 +1505,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="str">
-        <v>4109029**8</v>
+        <v>4109012030</v>
       </c>
       <c r="C44">
-        <v>1967911</v>
+        <v>1996915</v>
       </c>
       <c r="D44">
-        <v>10411</v>
+        <v>1770965</v>
       </c>
       <c r="E44">
-        <v>1957500</v>
+        <v>225950</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="H44" t="str">
-        <v>11/9 10:47</v>
+        <v>10/20 16:13</v>
       </c>
     </row>
     <row r="45">
@@ -1531,22 +1531,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="str">
-        <v>4108031**4</v>
+        <v>4108031014</v>
       </c>
       <c r="C45">
-        <v>1964184</v>
+        <v>1993383</v>
       </c>
       <c r="D45">
-        <v>1026034</v>
+        <v>1993383</v>
       </c>
       <c r="E45">
-        <v>938150</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H45" t="str">
         <v>10/18 10:20</v>
@@ -1557,25 +1557,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="str">
-        <v>4107062**5</v>
+        <v>4106065031</v>
       </c>
       <c r="C46">
-        <v>1956893</v>
+        <v>1989870</v>
       </c>
       <c r="D46">
-        <v>22203</v>
+        <v>1906570</v>
       </c>
       <c r="E46">
-        <v>1934690</v>
+        <v>83300</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G46">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H46" t="str">
-        <v>11/4 21:04</v>
+        <v>10/29 13:31</v>
       </c>
     </row>
     <row r="47">
@@ -1583,7 +1583,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="str">
-        <v>4107052**9</v>
+        <v>4107052049</v>
       </c>
       <c r="C47">
         <v>1942582</v>
@@ -1609,7 +1609,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="str">
-        <v>4108037**6</v>
+        <v>4108037036</v>
       </c>
       <c r="C48">
         <v>1908328</v>
@@ -1635,22 +1635,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="str">
-        <v>4109042**6</v>
+        <v>4109042046</v>
       </c>
       <c r="C49">
-        <v>1844805</v>
+        <v>1726298</v>
       </c>
       <c r="D49">
-        <v>79055</v>
+        <v>60248</v>
       </c>
       <c r="E49">
-        <v>1765750</v>
+        <v>1666050</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="H49" t="str">
         <v>10/19 11:47</v>
@@ -1664,19 +1664,19 @@
         <v>最高</v>
       </c>
       <c r="C51">
-        <v>2552653</v>
+        <v>2712592</v>
       </c>
       <c r="D51">
-        <v>2021977</v>
+        <v>2712592</v>
       </c>
       <c r="E51">
-        <v>2399000</v>
+        <v>2574500</v>
       </c>
       <c r="F51">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G51">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52">
@@ -1687,10 +1687,10 @@
         <v>最低</v>
       </c>
       <c r="C52">
-        <v>1844805</v>
+        <v>1726298</v>
       </c>
       <c r="D52">
-        <v>7211</v>
+        <v>22073</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1710,19 +1710,19 @@
         <v>平均</v>
       </c>
       <c r="C53" t="str">
-        <v>2088068.00</v>
+        <v>2154274.27</v>
       </c>
       <c r="D53" t="str">
-        <v>1013047.58</v>
+        <v>1277638.02</v>
       </c>
       <c r="E53" t="str">
-        <v>1075020.42</v>
+        <v>876636.25</v>
       </c>
       <c r="F53" t="str">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53" t="str">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54">
@@ -1733,19 +1733,19 @@
         <v>中位數</v>
       </c>
       <c r="C54" t="str">
-        <v>2046257.00</v>
+        <v>2093922.00</v>
       </c>
       <c r="D54" t="str">
-        <v>977004.00</v>
+        <v>1448707.50</v>
       </c>
       <c r="E54" t="str">
-        <v>1126485.00</v>
+        <v>654075.00</v>
       </c>
       <c r="F54" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" t="str">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
@@ -1756,19 +1756,19 @@
         <v>標準差</v>
       </c>
       <c r="C55" t="str">
-        <v>130951.98</v>
+        <v>191365.12</v>
       </c>
       <c r="D55" t="str">
-        <v>656079.26</v>
+        <v>735351.62</v>
       </c>
       <c r="E55" t="str">
-        <v>701400.00</v>
+        <v>808518.77</v>
       </c>
       <c r="F55" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" t="str">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1816,22 +1816,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>7109026**3</v>
+        <v>7109026123</v>
       </c>
       <c r="C2">
-        <v>2834732</v>
+        <v>3172671</v>
       </c>
       <c r="D2">
-        <v>121732</v>
+        <v>3172671</v>
       </c>
       <c r="E2">
-        <v>2713000</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2" t="str">
         <v>10/19 09:52</v>
@@ -1842,16 +1842,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>7109026**9</v>
+        <v>7109026109</v>
       </c>
       <c r="C3">
-        <v>2263949</v>
+        <v>2425899</v>
       </c>
       <c r="D3">
         <v>513099</v>
       </c>
       <c r="E3">
-        <v>1750850</v>
+        <v>1912800</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -1868,25 +1868,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>7109026**2</v>
+        <v>7108026146</v>
       </c>
       <c r="C4">
-        <v>2244113</v>
+        <v>2412264</v>
       </c>
       <c r="D4">
-        <v>746413</v>
+        <v>498814</v>
       </c>
       <c r="E4">
-        <v>1497700</v>
+        <v>1913450</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H4" t="str">
-        <v>10/28 10:06</v>
+        <v>10/16 12:55</v>
       </c>
     </row>
     <row r="5">
@@ -1894,25 +1894,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>7108026**6</v>
+        <v>7108026108</v>
       </c>
       <c r="C5">
-        <v>2184014</v>
+        <v>2292903</v>
       </c>
       <c r="D5">
-        <v>498814</v>
+        <v>296603</v>
       </c>
       <c r="E5">
-        <v>1685200</v>
+        <v>1996300</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" t="str">
-        <v>10/16 12:55</v>
+        <v>10/21 13:41</v>
       </c>
     </row>
     <row r="6">
@@ -1920,13 +1920,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>7109026**7</v>
+        <v>7109026102</v>
       </c>
       <c r="C6">
-        <v>2170439</v>
+        <v>2270636</v>
       </c>
       <c r="D6">
-        <v>2170439</v>
+        <v>2270636</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1935,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H6" t="str">
-        <v>10/19 11:53</v>
+        <v>10/28 10:06</v>
       </c>
     </row>
     <row r="7">
@@ -1946,25 +1946,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>7108026**9</v>
+        <v>7108026122</v>
       </c>
       <c r="C7">
-        <v>2127035</v>
+        <v>2265904</v>
       </c>
       <c r="D7">
-        <v>1447135</v>
+        <v>146404</v>
       </c>
       <c r="E7">
-        <v>679900</v>
+        <v>2119500</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="H7" t="str">
-        <v>10/15 12:20</v>
+        <v>10/26 11:16</v>
       </c>
     </row>
     <row r="8">
@@ -1972,25 +1972,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>7108026**8</v>
+        <v>7108026119</v>
       </c>
       <c r="C8">
-        <v>2122614</v>
+        <v>2213219</v>
       </c>
       <c r="D8">
-        <v>142264</v>
+        <v>1365119</v>
       </c>
       <c r="E8">
-        <v>1980350</v>
+        <v>848100</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="H8" t="str">
-        <v>10/21 13:41</v>
+        <v>10/15 12:20</v>
       </c>
     </row>
     <row r="9">
@@ -1998,13 +1998,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="str">
-        <v>7108026**0</v>
+        <v>7109026127</v>
       </c>
       <c r="C9">
-        <v>2112096</v>
+        <v>2170439</v>
       </c>
       <c r="D9">
-        <v>2112096</v>
+        <v>2170439</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H9" t="str">
-        <v>10/19 12:47</v>
+        <v>10/19 11:53</v>
       </c>
     </row>
     <row r="10">
@@ -2024,25 +2024,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="str">
-        <v>7108026**2</v>
+        <v>7109026135</v>
       </c>
       <c r="C10">
-        <v>2108713</v>
+        <v>2121326</v>
       </c>
       <c r="D10">
-        <v>363713</v>
+        <v>1797376</v>
       </c>
       <c r="E10">
-        <v>1745000</v>
+        <v>323950</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H10" t="str">
-        <v>10/26 11:16</v>
+        <v>10/20 12:31</v>
       </c>
     </row>
     <row r="11">
@@ -2050,25 +2050,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="str">
-        <v>7109026**5</v>
+        <v>7108026130</v>
       </c>
       <c r="C11">
-        <v>2099314</v>
+        <v>2117847</v>
       </c>
       <c r="D11">
-        <v>1710264</v>
+        <v>2021147</v>
       </c>
       <c r="E11">
-        <v>389050</v>
+        <v>96700</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="H11" t="str">
-        <v>10/20 12:31</v>
+        <v>10/19 12:47</v>
       </c>
     </row>
     <row r="12">
@@ -2076,25 +2076,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="str">
-        <v>7109026**1</v>
+        <v>7109026126</v>
       </c>
       <c r="C12">
-        <v>2081191</v>
+        <v>2105145</v>
       </c>
       <c r="D12">
-        <v>1294091</v>
+        <v>2105145</v>
       </c>
       <c r="E12">
-        <v>787100</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="H12" t="str">
-        <v>11/2 12:32</v>
+        <v>10/20 15:34</v>
       </c>
     </row>
     <row r="13">
@@ -2102,25 +2102,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="str">
-        <v>7108026**4</v>
+        <v>7109026111</v>
       </c>
       <c r="C13">
-        <v>2054641</v>
+        <v>2105137</v>
       </c>
       <c r="D13">
-        <v>1727091</v>
+        <v>1373687</v>
       </c>
       <c r="E13">
-        <v>327550</v>
+        <v>731450</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="H13" t="str">
-        <v>10/15 12:20</v>
+        <v>11/2 12:32</v>
       </c>
     </row>
     <row r="14">
@@ -2128,22 +2128,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="str">
-        <v>7108026**7</v>
+        <v>7108026127</v>
       </c>
       <c r="C14">
-        <v>2053684</v>
+        <v>2087970</v>
       </c>
       <c r="D14">
-        <v>256434</v>
+        <v>1424970</v>
       </c>
       <c r="E14">
-        <v>1797250</v>
+        <v>663000</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H14" t="str">
         <v>10/21 09:32</v>
@@ -2154,25 +2154,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="str">
-        <v>7108026**7</v>
+        <v>7108026114</v>
       </c>
       <c r="C15">
-        <v>2039226</v>
+        <v>2069091</v>
       </c>
       <c r="D15">
-        <v>1747226</v>
+        <v>1727091</v>
       </c>
       <c r="E15">
-        <v>292000</v>
+        <v>342000</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="H15" t="str">
-        <v>10/20 13:46</v>
+        <v>10/15 12:20</v>
       </c>
     </row>
     <row r="16">
@@ -2180,16 +2180,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="str">
-        <v>7109026**2</v>
+        <v>7109026132</v>
       </c>
       <c r="C16">
-        <v>2033094</v>
+        <v>2048374</v>
       </c>
       <c r="D16">
         <v>1726844</v>
       </c>
       <c r="E16">
-        <v>306250</v>
+        <v>321530</v>
       </c>
       <c r="F16">
         <v>4</v>
@@ -2206,25 +2206,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="str">
-        <v>7109026**1</v>
+        <v>7108026107</v>
       </c>
       <c r="C17">
-        <v>2002407</v>
+        <v>2022726</v>
       </c>
       <c r="D17">
-        <v>1749757</v>
+        <v>1747226</v>
       </c>
       <c r="E17">
-        <v>252650</v>
+        <v>275500</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="H17" t="str">
-        <v>11/2 09:15</v>
+        <v>10/20 13:46</v>
       </c>
     </row>
     <row r="18">
@@ -2232,25 +2232,25 @@
         <v>17</v>
       </c>
       <c r="B18" t="str">
-        <v>7109026**7</v>
+        <v>7109026114</v>
       </c>
       <c r="C18">
-        <v>1998211</v>
+        <v>2017863</v>
       </c>
       <c r="D18">
-        <v>992211</v>
+        <v>1437863</v>
       </c>
       <c r="E18">
-        <v>1006000</v>
+        <v>580000</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="H18" t="str">
-        <v>10/15 09:44</v>
+        <v>10/19 11:19</v>
       </c>
     </row>
     <row r="19">
@@ -2258,25 +2258,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="str">
-        <v>7109026**6</v>
+        <v>7109026101</v>
       </c>
       <c r="C19">
-        <v>1992198</v>
+        <v>2013957</v>
       </c>
       <c r="D19">
-        <v>70298</v>
+        <v>1749757</v>
       </c>
       <c r="E19">
-        <v>1921900</v>
+        <v>264200</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="H19" t="str">
-        <v>10/20 15:34</v>
+        <v>11/2 09:15</v>
       </c>
     </row>
     <row r="20">
@@ -2284,25 +2284,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="str">
-        <v>7109026**6</v>
+        <v>7109026107</v>
       </c>
       <c r="C20">
-        <v>1981274</v>
+        <v>2013592</v>
       </c>
       <c r="D20">
-        <v>1318274</v>
+        <v>556592</v>
       </c>
       <c r="E20">
-        <v>663000</v>
+        <v>1457000</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="H20" t="str">
-        <v>10/18 21:45</v>
+        <v>10/15 09:44</v>
       </c>
     </row>
     <row r="21">
@@ -2310,25 +2310,25 @@
         <v>20</v>
       </c>
       <c r="B21" t="str">
-        <v>7109026**8</v>
+        <v>7109026106</v>
       </c>
       <c r="C21">
-        <v>1954556</v>
+        <v>1995274</v>
       </c>
       <c r="D21">
-        <v>1808556</v>
+        <v>1318274</v>
       </c>
       <c r="E21">
-        <v>146000</v>
+        <v>677000</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H21" t="str">
-        <v>10/15 12:25</v>
+        <v>10/18 21:45</v>
       </c>
     </row>
     <row r="22">
@@ -2336,25 +2336,25 @@
         <v>21</v>
       </c>
       <c r="B22" t="str">
-        <v>7109026**4</v>
+        <v>7109026008</v>
       </c>
       <c r="C22">
-        <v>1948863</v>
+        <v>1946306</v>
       </c>
       <c r="D22">
-        <v>1437863</v>
+        <v>1808556</v>
       </c>
       <c r="E22">
-        <v>511000</v>
+        <v>137750</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H22" t="str">
-        <v>10/19 11:19</v>
+        <v>10/15 12:25</v>
       </c>
     </row>
     <row r="23">
@@ -2362,7 +2362,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="str">
-        <v>7108026**7</v>
+        <v>7108026007</v>
       </c>
       <c r="C23">
         <v>1862498</v>
@@ -2391,19 +2391,19 @@
         <v>最高</v>
       </c>
       <c r="C25">
-        <v>2834732</v>
+        <v>3172671</v>
       </c>
       <c r="D25">
-        <v>2170439</v>
+        <v>3172671</v>
       </c>
       <c r="E25">
-        <v>2713000</v>
+        <v>2119500</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -2417,7 +2417,7 @@
         <v>1862498</v>
       </c>
       <c r="D26">
-        <v>70298</v>
+        <v>146404</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2437,19 +2437,19 @@
         <v>平均</v>
       </c>
       <c r="C27" t="str">
-        <v>2103130.09</v>
+        <v>2170501.86</v>
       </c>
       <c r="D27" t="str">
-        <v>1173505.09</v>
+        <v>1504127.77</v>
       </c>
       <c r="E27" t="str">
-        <v>929625.00</v>
+        <v>666374.09</v>
       </c>
       <c r="F27" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27" t="str">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -2460,19 +2460,19 @@
         <v>中位數</v>
       </c>
       <c r="C28" t="str">
-        <v>2067916.00</v>
+        <v>2105141.00</v>
       </c>
       <c r="D28" t="str">
-        <v>1378068.50</v>
+        <v>1726967.50</v>
       </c>
       <c r="E28" t="str">
-        <v>671450.00</v>
+        <v>332975.00</v>
       </c>
       <c r="F28" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" t="str">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -2483,19 +2483,19 @@
         <v>標準差</v>
       </c>
       <c r="C29" t="str">
-        <v>185800.57</v>
+        <v>259352.24</v>
       </c>
       <c r="D29" t="str">
-        <v>690362.70</v>
+        <v>714893.61</v>
       </c>
       <c r="E29" t="str">
-        <v>789256.72</v>
+        <v>711565.11</v>
       </c>
       <c r="F29" t="str">
         <v>2</v>
       </c>
       <c r="G29" t="str">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2543,22 +2543,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>5109026**6</v>
+        <v>5109026016</v>
       </c>
       <c r="C2">
-        <v>2511403</v>
+        <v>2632536</v>
       </c>
       <c r="D2">
-        <v>2292703</v>
+        <v>2407356</v>
       </c>
       <c r="E2">
-        <v>218700</v>
+        <v>225180</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H2" t="str">
         <v>10/21 09:02</v>
@@ -2569,16 +2569,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>5109026**5</v>
+        <v>5109026015</v>
       </c>
       <c r="C3">
-        <v>2156936</v>
+        <v>2212686</v>
       </c>
       <c r="D3">
         <v>11986</v>
       </c>
       <c r="E3">
-        <v>2144950</v>
+        <v>2200700</v>
       </c>
       <c r="F3">
         <v>6</v>
@@ -2595,25 +2595,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="str">
-        <v>5109026**2</v>
+        <v>5109026006</v>
       </c>
       <c r="C4">
-        <v>2075381</v>
+        <v>2154078</v>
       </c>
       <c r="D4">
-        <v>547381</v>
+        <v>330078</v>
       </c>
       <c r="E4">
-        <v>1528000</v>
+        <v>1824000</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H4" t="str">
-        <v>11/2 11:14</v>
+        <v>11/4 16:20</v>
       </c>
     </row>
     <row r="5">
@@ -2621,25 +2621,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="str">
-        <v>5109026**6</v>
+        <v>5109026002</v>
       </c>
       <c r="C5">
-        <v>2051245</v>
+        <v>2094032</v>
       </c>
       <c r="D5">
-        <v>377445</v>
+        <v>1120832</v>
       </c>
       <c r="E5">
-        <v>1673800</v>
+        <v>973200</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H5" t="str">
-        <v>11/4 16:20</v>
+        <v>11/2 11:14</v>
       </c>
     </row>
     <row r="6">
@@ -2647,25 +2647,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="str">
-        <v>5109026**7</v>
+        <v>5109026011</v>
       </c>
       <c r="C6">
-        <v>2033019</v>
+        <v>2054513</v>
       </c>
       <c r="D6">
-        <v>867069</v>
+        <v>1079923</v>
       </c>
       <c r="E6">
-        <v>1165950</v>
+        <v>974590</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="str">
-        <v>11/10 17:52</v>
+        <v>10/27 19:31</v>
       </c>
     </row>
     <row r="7">
@@ -2673,25 +2673,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="str">
-        <v>5109026**1</v>
+        <v>5109026017</v>
       </c>
       <c r="C7">
-        <v>2006655</v>
+        <v>2023904</v>
       </c>
       <c r="D7">
-        <v>1876055</v>
+        <v>1210204</v>
       </c>
       <c r="E7">
-        <v>130600</v>
+        <v>813700</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H7" t="str">
-        <v>10/27 19:31</v>
+        <v>11/10 17:52</v>
       </c>
     </row>
     <row r="8">
@@ -2699,22 +2699,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="str">
-        <v>5109026**3</v>
+        <v>5109026003</v>
       </c>
       <c r="C8">
-        <v>1989796</v>
+        <v>2010478</v>
       </c>
       <c r="D8">
-        <v>1330696</v>
+        <v>1798628</v>
       </c>
       <c r="E8">
-        <v>659100</v>
+        <v>211850</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="H8" t="str">
         <v>10/26 22:08</v>
@@ -2728,19 +2728,19 @@
         <v>最高</v>
       </c>
       <c r="C10">
-        <v>2511403</v>
+        <v>2632536</v>
       </c>
       <c r="D10">
-        <v>2292703</v>
+        <v>2407356</v>
       </c>
       <c r="E10">
-        <v>2144950</v>
+        <v>2200700</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -2751,19 +2751,19 @@
         <v>最低</v>
       </c>
       <c r="C11">
-        <v>1989796</v>
+        <v>2010478</v>
       </c>
       <c r="D11">
         <v>11986</v>
       </c>
       <c r="E11">
-        <v>130600</v>
+        <v>211850</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -2774,19 +2774,19 @@
         <v>平均</v>
       </c>
       <c r="C12" t="str">
-        <v>2117776.43</v>
+        <v>2168889.57</v>
       </c>
       <c r="D12" t="str">
-        <v>1043333.57</v>
+        <v>1137001.00</v>
       </c>
       <c r="E12" t="str">
-        <v>1074442.86</v>
+        <v>1031888.57</v>
       </c>
       <c r="F12" t="str">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" t="str">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -2797,19 +2797,19 @@
         <v>中位數</v>
       </c>
       <c r="C13" t="str">
-        <v>2051245.00</v>
+        <v>2094032.00</v>
       </c>
       <c r="D13" t="str">
-        <v>867069.00</v>
+        <v>1120832.00</v>
       </c>
       <c r="E13" t="str">
-        <v>1165950.00</v>
+        <v>973200.00</v>
       </c>
       <c r="F13" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" t="str">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
@@ -2820,19 +2820,19 @@
         <v>標準差</v>
       </c>
       <c r="C14" t="str">
-        <v>168442.42</v>
+        <v>200679.64</v>
       </c>
       <c r="D14" t="str">
-        <v>767281.81</v>
+        <v>753772.76</v>
       </c>
       <c r="E14" t="str">
-        <v>708615.05</v>
+        <v>693967.51</v>
       </c>
       <c r="F14" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="str">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
